--- a/Inputs/Supplemental Inputs - Sofia/Spreadsheets/Manual LCVP name standardization.xlsx
+++ b/Inputs/Supplemental Inputs - Sofia/Spreadsheets/Manual LCVP name standardization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiaquijada/Documents/McGill/2024 Soper Lab/AusStoich/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiaquijada/Documents/McGill/2024 Soper Lab/AusStoich-Collab/Inputs/Supplemental Inputs - Sofia/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47D6BBC-F931-1941-A58D-75C9A3AE6FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC99ED2-55F4-9140-9220-5B1E92AD114D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="760" windowWidth="26140" windowHeight="17440" activeTab="2" xr2:uid="{8EB074A1-37CE-C24C-8F19-4DA7AA825B5C}"/>
+    <workbookView xWindow="1240" yWindow="760" windowWidth="26140" windowHeight="17440" firstSheet="1" activeTab="6" xr2:uid="{8EB074A1-37CE-C24C-8F19-4DA7AA825B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="genus resolution" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9465" uniqueCount="2516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9469" uniqueCount="2519">
   <si>
     <t>Acanthaceae Dipteracanthus</t>
   </si>
@@ -7706,6 +7706,15 @@
   </si>
   <si>
     <t>need to get one rep per species in austraits_wo_lcvp_search</t>
+  </si>
+  <si>
+    <t>Ichnocarpus_frutescens</t>
+  </si>
+  <si>
+    <t>Ichnocarpus</t>
+  </si>
+  <si>
+    <t>manually added and fixed on csv as well</t>
   </si>
 </sst>
 </file>
@@ -10482,7 +10491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC8B7BB-70CF-5845-A93D-7BF57A0D3637}">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -25969,8 +25978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D648026B-C607-B04B-BA96-0AC790572AA9}">
   <dimension ref="A1:F860"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="F711" sqref="F711"/>
+    <sheetView tabSelected="1" topLeftCell="A813" workbookViewId="0">
+      <selection activeCell="E834" sqref="E834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -34969,7 +34978,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="817" spans="1:3" ht="16">
+    <row r="817" spans="1:4" ht="16">
       <c r="A817" s="44" t="s">
         <v>1781</v>
       </c>
@@ -34980,7 +34989,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="818" spans="1:3" ht="16">
+    <row r="818" spans="1:4" ht="16">
       <c r="A818" s="44" t="s">
         <v>2450</v>
       </c>
@@ -34991,7 +35000,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="819" spans="1:3" ht="16">
+    <row r="819" spans="1:4" ht="16">
       <c r="A819" s="44" t="s">
         <v>1708</v>
       </c>
@@ -35002,7 +35011,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="820" spans="1:3" ht="16">
+    <row r="820" spans="1:4" ht="16">
       <c r="A820" s="44" t="s">
         <v>1793</v>
       </c>
@@ -35013,7 +35022,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="821" spans="1:3" ht="16">
+    <row r="821" spans="1:4" ht="16">
       <c r="A821" s="44" t="s">
         <v>1705</v>
       </c>
@@ -35024,7 +35033,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="822" spans="1:3" ht="16">
+    <row r="822" spans="1:4" ht="16">
       <c r="A822" s="44" t="s">
         <v>1803</v>
       </c>
@@ -35035,7 +35044,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="823" spans="1:3" ht="16">
+    <row r="823" spans="1:4" ht="16">
       <c r="A823" s="44" t="s">
         <v>2286</v>
       </c>
@@ -35046,7 +35055,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="824" spans="1:3" ht="16">
+    <row r="824" spans="1:4" ht="16">
       <c r="A824" s="44" t="s">
         <v>1868</v>
       </c>
@@ -35057,7 +35066,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="825" spans="1:3" ht="16">
+    <row r="825" spans="1:4" ht="16">
       <c r="A825" s="44" t="s">
         <v>228</v>
       </c>
@@ -35068,7 +35077,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="826" spans="1:3" ht="16">
+    <row r="826" spans="1:4" ht="16">
       <c r="A826" s="44" t="s">
         <v>229</v>
       </c>
@@ -35079,7 +35088,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="827" spans="1:3" ht="16">
+    <row r="827" spans="1:4" ht="16">
       <c r="A827" s="44" t="s">
         <v>2290</v>
       </c>
@@ -35090,7 +35099,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="828" spans="1:3" ht="16">
+    <row r="828" spans="1:4" ht="16">
       <c r="A828" s="44" t="s">
         <v>1961</v>
       </c>
@@ -35101,7 +35110,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="829" spans="1:3" ht="16">
+    <row r="829" spans="1:4" ht="16">
       <c r="A829" s="44" t="s">
         <v>2287</v>
       </c>
@@ -35112,7 +35121,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="830" spans="1:3" ht="16">
+    <row r="830" spans="1:4" ht="16">
       <c r="A830" s="44" t="s">
         <v>2288</v>
       </c>
@@ -35123,7 +35132,21 @@
         <v>204</v>
       </c>
     </row>
-    <row r="832" spans="1:3" ht="16">
+    <row r="831" spans="1:4">
+      <c r="A831" s="43" t="s">
+        <v>2516</v>
+      </c>
+      <c r="B831" s="43" t="s">
+        <v>2517</v>
+      </c>
+      <c r="C831" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="D831" s="43" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" ht="16">
       <c r="A832"/>
       <c r="B832"/>
       <c r="C832"/>

--- a/Inputs/Supplemental Inputs - Sofia/Spreadsheets/Manual LCVP name standardization.xlsx
+++ b/Inputs/Supplemental Inputs - Sofia/Spreadsheets/Manual LCVP name standardization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiaquijada/Library/Mobile Documents/com~apple~CloudDocs/McGill/2024 Soper Lab/AusStoich-Collab/Inputs/Supplemental Inputs - Sofia/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB99FB7-F765-7C45-B8FB-CFC8F81CE797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBF5396-4925-C440-8679-4EB77483750B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="760" windowWidth="26140" windowHeight="17440" firstSheet="2" activeTab="2" xr2:uid="{8EB074A1-37CE-C24C-8F19-4DA7AA825B5C}"/>
+    <workbookView xWindow="2280" yWindow="2180" windowWidth="26140" windowHeight="17440" firstSheet="1" activeTab="2" xr2:uid="{8EB074A1-37CE-C24C-8F19-4DA7AA825B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="genus resolution" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10097" uniqueCount="2606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10126" uniqueCount="2611">
   <si>
     <t>Acanthaceae Dipteracanthus</t>
   </si>
@@ -7978,13 +7978,28 @@
   </si>
   <si>
     <t>in orange: genera not in tips.info</t>
+  </si>
+  <si>
+    <t>lcvp_genera_count</t>
+  </si>
+  <si>
+    <t>family = families associated with genera not in megatree</t>
+  </si>
+  <si>
+    <t>lcvp_genera_count = genera associated with these families in megatree</t>
+  </si>
+  <si>
+    <t>would be good to add relative for this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not necessarily for this </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8196,6 +8211,12 @@
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -8265,7 +8286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8321,10 +8342,9 @@
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20975,29 +20995,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C691487-BF6D-054B-B778-01A3AF390465}">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="55" t="s">
         <v>167</v>
       </c>
       <c r="D1" s="42" t="s">
@@ -21010,7 +21030,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>121</v>
       </c>
@@ -21025,7 +21045,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>2533</v>
       </c>
@@ -21037,7 +21057,7 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>2535</v>
       </c>
@@ -21049,7 +21069,7 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>2537</v>
       </c>
@@ -21064,7 +21084,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>2539</v>
       </c>
@@ -21076,7 +21096,7 @@
       </c>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>140</v>
       </c>
@@ -21088,7 +21108,7 @@
       </c>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>2542</v>
       </c>
@@ -21100,7 +21120,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>2543</v>
       </c>
@@ -21112,7 +21132,7 @@
       </c>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>135</v>
       </c>
@@ -21124,7 +21144,7 @@
       </c>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>84</v>
       </c>
@@ -21135,8 +21155,16 @@
         <v>412</v>
       </c>
       <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>2546</v>
       </c>
@@ -21147,8 +21175,17 @@
         <v>274</v>
       </c>
       <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>2547</v>
       </c>
@@ -21159,8 +21196,17 @@
         <v>243</v>
       </c>
       <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>2549</v>
       </c>
@@ -21171,8 +21217,19 @@
         <v>455</v>
       </c>
       <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="s">
+        <v>2608</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>2551</v>
       </c>
@@ -21183,8 +21240,19 @@
         <v>243</v>
       </c>
       <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
+        <v>2607</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>2553</v>
       </c>
@@ -21195,8 +21263,17 @@
         <v>243</v>
       </c>
       <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>2555</v>
       </c>
@@ -21207,8 +21284,17 @@
         <v>243</v>
       </c>
       <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>2557</v>
       </c>
@@ -21219,8 +21305,21 @@
         <v>243</v>
       </c>
       <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" s="57" t="s">
+        <v>2606</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>2558</v>
       </c>
@@ -21231,8 +21330,19 @@
         <v>243</v>
       </c>
       <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="K19" s="57"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>2559</v>
       </c>
@@ -21243,8 +21353,25 @@
         <v>243</v>
       </c>
       <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="48">
+        <v>1</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" s="48">
+        <v>1223</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>2560</v>
       </c>
@@ -21255,8 +21382,23 @@
         <v>243</v>
       </c>
       <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="48">
+        <v>2</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>243</v>
+      </c>
+      <c r="K21" s="48">
+        <v>585</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>2561</v>
       </c>
@@ -21267,8 +21409,23 @@
         <v>412</v>
       </c>
       <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="48">
+        <v>3</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" s="48">
+        <v>510</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>2562</v>
       </c>
@@ -21279,8 +21436,23 @@
         <v>455</v>
       </c>
       <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="48">
+        <v>4</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="K23" s="48">
+        <v>419</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>382</v>
       </c>
@@ -21291,8 +21463,23 @@
         <v>274</v>
       </c>
       <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="48">
+        <v>5</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="K24" s="48">
+        <v>175</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -21303,8 +21490,23 @@
         <v>1001</v>
       </c>
       <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="48">
+        <v>6</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>612</v>
+      </c>
+      <c r="K25" s="48">
+        <v>151</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>2564</v>
       </c>
@@ -21315,8 +21517,23 @@
         <v>455</v>
       </c>
       <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="48">
+        <v>7</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" s="48">
+        <v>146</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>2565</v>
       </c>
@@ -21327,8 +21544,23 @@
         <v>455</v>
       </c>
       <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="48">
+        <v>8</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="K27" s="48">
+        <v>106</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>2566</v>
       </c>
@@ -21339,8 +21571,22 @@
         <v>412</v>
       </c>
       <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="48">
+        <v>9</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K28" s="48">
+        <v>100</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>85</v>
       </c>
@@ -21351,8 +21597,22 @@
         <v>1231</v>
       </c>
       <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="48">
+        <v>10</v>
+      </c>
+      <c r="J29" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="48">
+        <v>98</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>2568</v>
       </c>
@@ -21363,8 +21623,22 @@
         <v>243</v>
       </c>
       <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="48">
+        <v>11</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="K30" s="48">
+        <v>98</v>
+      </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>2569</v>
       </c>
@@ -21375,8 +21649,22 @@
         <v>455</v>
       </c>
       <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="48">
+        <v>12</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" s="48">
+        <v>97</v>
+      </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>2571</v>
       </c>
@@ -21387,8 +21675,22 @@
         <v>1452</v>
       </c>
       <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="48">
+        <v>13</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="K32" s="48">
+        <v>65</v>
+      </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>2572</v>
       </c>
@@ -21399,8 +21701,22 @@
         <v>243</v>
       </c>
       <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="48">
+        <v>14</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K33" s="48">
+        <v>62</v>
+      </c>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>2573</v>
       </c>
@@ -21411,8 +21727,22 @@
         <v>243</v>
       </c>
       <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="48">
+        <v>15</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>455</v>
+      </c>
+      <c r="K34" s="48">
+        <v>50</v>
+      </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>2574</v>
       </c>
@@ -21423,8 +21753,22 @@
         <v>243</v>
       </c>
       <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="48">
+        <v>16</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>2541</v>
+      </c>
+      <c r="K35" s="48">
+        <v>40</v>
+      </c>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>2576</v>
       </c>
@@ -21435,8 +21779,22 @@
         <v>203</v>
       </c>
       <c r="E36" s="11"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="48">
+        <v>17</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="K36" s="48">
+        <v>17</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>81</v>
       </c>
@@ -21447,8 +21805,22 @@
         <v>176</v>
       </c>
       <c r="E37" s="11"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="48">
+        <v>18</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>2595</v>
+      </c>
+      <c r="K37" s="48">
+        <v>16</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>2578</v>
       </c>
@@ -21459,8 +21831,22 @@
         <v>455</v>
       </c>
       <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="48">
+        <v>19</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>1452</v>
+      </c>
+      <c r="K38" s="48">
+        <v>12</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>2579</v>
       </c>
@@ -21471,8 +21857,22 @@
         <v>455</v>
       </c>
       <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="48">
+        <v>20</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>622</v>
+      </c>
+      <c r="K39" s="48">
+        <v>12</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>2581</v>
       </c>
@@ -21483,8 +21883,25 @@
         <v>195</v>
       </c>
       <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="48">
+        <v>21</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>2531</v>
+      </c>
+      <c r="K40" s="48">
+        <v>4</v>
+      </c>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>2583</v>
       </c>
@@ -21495,8 +21912,22 @@
         <v>622</v>
       </c>
       <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="48">
+        <v>22</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>2600</v>
+      </c>
+      <c r="K41" s="48">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>2584</v>
       </c>
@@ -21507,8 +21938,16 @@
         <v>455</v>
       </c>
       <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>2585</v>
       </c>
@@ -21519,8 +21958,16 @@
         <v>455</v>
       </c>
       <c r="E43" s="11"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>71</v>
       </c>
@@ -21531,8 +21978,16 @@
         <v>355</v>
       </c>
       <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>136</v>
       </c>
@@ -21543,8 +21998,16 @@
         <v>236</v>
       </c>
       <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>2588</v>
       </c>
@@ -21555,8 +22018,16 @@
         <v>350</v>
       </c>
       <c r="E46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>2590</v>
       </c>
@@ -21567,8 +22038,16 @@
         <v>350</v>
       </c>
       <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>2592</v>
       </c>
@@ -21579,8 +22058,16 @@
         <v>203</v>
       </c>
       <c r="E48" s="11"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>80</v>
       </c>
@@ -21591,8 +22078,16 @@
         <v>258</v>
       </c>
       <c r="E49" s="11"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>143</v>
       </c>
@@ -21603,8 +22098,16 @@
         <v>144</v>
       </c>
       <c r="E50" s="11"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>132</v>
       </c>
@@ -21615,8 +22118,16 @@
         <v>2595</v>
       </c>
       <c r="E51" s="11"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>2597</v>
       </c>
@@ -21628,7 +22139,7 @@
       </c>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>2599</v>
       </c>
@@ -21640,7 +22151,7 @@
       </c>
       <c r="E53" s="11"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>2602</v>
       </c>
@@ -21652,7 +22163,7 @@
       </c>
       <c r="E54" s="11"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>2603</v>
       </c>
@@ -21664,7 +22175,7 @@
       </c>
       <c r="E55" s="11"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>123</v>
       </c>
@@ -21676,7 +22187,7 @@
       </c>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>2604</v>
       </c>
@@ -21688,19 +22199,19 @@
       </c>
       <c r="E57" s="11"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="55"/>
+      <c r="B58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="55"/>
+      <c r="B59" s="1"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="55"/>
+      <c r="B60" s="1"/>
       <c r="E60" s="1"/>
     </row>
   </sheetData>
